--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCHVMoi.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCHVMoi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B207F1-D0E5-4E6A-8933-7FB45E805B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F94BC-A731-402F-A5AD-103E87C3DF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91C3213B-5A2A-47EB-894D-C318A534CBFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C3213B-5A2A-47EB-894D-C318A534CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>HỘI NÔNG DÂN VIỆT NAM</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Ngành nghề</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -275,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,14 +305,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,12 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,22 +649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0906F0-0EC8-43AD-9533-C4A2100D6A2F}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="14" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
@@ -1953,106 +1941,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="19.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21" ht="19.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" ht="19.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" ht="18.75">
       <c r="A5" s="1"/>
@@ -2078,52 +2066,52 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="20.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" ht="19.5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" ht="18.75">
       <c r="A8" s="2"/>
@@ -2149,65 +2137,65 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" s="9" customFormat="1" ht="18.75">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17" t="s">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="9" customFormat="1" ht="93.75">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
@@ -2220,140 +2208,32 @@
       <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="18.75">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12">
-        <f>A11+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" ref="E11:U11" si="0">D11+1</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P11" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="S11" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T11" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="U11" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="A2:H2"/>
@@ -2370,7 +2250,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="M12:U12"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
